--- a/RedCanary/RedCanary2022Report_Mapping_TTPs.xlsx
+++ b/RedCanary/RedCanary2022Report_Mapping_TTPs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>CTI Source</t>
   </si>
@@ -302,6 +302,101 @@
     <t>process == rundll32.exe
 &amp;&amp;
 command_line_includes ('MiniDump')</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>PowerShell Get-Process LSASS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>LSASS Memory Dumping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Suspicious Script Execution From Temp Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>LSASS Memory Dump File Creation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">LSASS Process Memory Dump Files </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Load of dbghelp/dbgcore DLL from Suspicious Process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Lsass Memory Dump via Comsvcs DLL</t>
+    </r>
   </si>
   <si>
     <r>
@@ -421,6 +516,39 @@
     <t>process == rundll32.exe
 &amp;&amp;
 cross_process_handle_into ('lsass.exe')</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MavInject Process Injection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Mavinject Inject DLL Into Running Process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Suspicious GrantedAccess Flags on LSASS Access</t>
+    </r>
   </si>
   <si>
     <r>
@@ -800,7 +928,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -818,9 +946,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -1987,11 +2112,11 @@
         <v>18</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="76.5" customHeight="1">
       <c r="A4" t="s" s="3">
@@ -2026,12 +2151,12 @@
         <v>25</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="65.45" customHeight="1">
       <c r="A6" t="s" s="3">
@@ -2067,11 +2192,11 @@
         <v>33</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="114" customHeight="1">
       <c r="A8" t="s" s="3">
@@ -2111,11 +2236,11 @@
       <c r="D9" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="85.5" customHeight="1">
       <c r="A10" t="s" s="3">
@@ -2143,37 +2268,55 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" ht="47.95" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" ht="142.5" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2186,42 +2329,42 @@
         <v>18</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" ht="112.45" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s" s="3">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="3">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2230,36 +2373,46 @@
       <c r="A15" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" ht="76.5" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2269,47 +2422,47 @@
         <v>16</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s" s="5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" ht="128.25" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s" s="3">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2319,39 +2472,39 @@
         <v>16</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" ht="156.75" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s" s="3">
         <v>27</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s" s="3">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2361,39 +2514,39 @@
         <v>16</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" ht="128.25" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s" s="3">
         <v>27</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s" s="3">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2406,33 +2559,33 @@
         <v>18</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s" s="3">
         <v>27</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2443,21 +2596,21 @@
         <v>16</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2474,34 +2627,45 @@
     <hyperlink ref="C9" r:id="rId11" location="" tooltip="" display="WMI Remote Command Execution "/>
     <hyperlink ref="D9" r:id="rId12" location="" tooltip="" display="Wmiprvse Spawning Process "/>
     <hyperlink ref="A10" r:id="rId13" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/lsass-memory/"/>
-    <hyperlink ref="A12" r:id="rId14" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/ingress-tool-transfer/"/>
-    <hyperlink ref="B13" r:id="rId15" location="" tooltip="" display="Non Interactive PowerShell"/>
-    <hyperlink ref="C13" r:id="rId16" location="" tooltip="" display="PowerShell Web Download "/>
-    <hyperlink ref="D13" r:id="rId17" location="" tooltip="" display="Windows Suspicious Use Of Web Request in CommandLine "/>
-    <hyperlink ref="E13" r:id="rId18" location="" tooltip="" display="PowerShell Download from URL "/>
-    <hyperlink ref="F13" r:id="rId19" location="" tooltip="" display="PowerShell Network Connections "/>
-    <hyperlink ref="A14" r:id="rId20" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/process-injection/"/>
-    <hyperlink ref="A16" r:id="rId21" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/scheduled-task/"/>
-    <hyperlink ref="B17" r:id="rId22" location="" tooltip="" display="Suspicious Add Scheduled Command Pattern "/>
-    <hyperlink ref="C17" r:id="rId23" location="" tooltip="" display="Scheduled Task Creation"/>
-    <hyperlink ref="D17" r:id="rId24" location="" tooltip="" display="Suspicius Schtasks From Env Var Folder "/>
-    <hyperlink ref="E17" r:id="rId25" location="" tooltip="" display="New TaskCache Entry "/>
-    <hyperlink ref="F17" r:id="rId26" location="" tooltip="" display="Cmd Stream Redirection"/>
-    <hyperlink ref="G17" r:id="rId27" location="" tooltip="" display="Redirect Output in CommandLine "/>
-    <hyperlink ref="A18" r:id="rId28" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/obfuscated-files-information/"/>
-    <hyperlink ref="B19" r:id="rId29" location="" tooltip="" display="Non Interactive PowerShell "/>
-    <hyperlink ref="C19" r:id="rId30" location="" tooltip="" display="Change PowerShell Policies to an Unsecure Level"/>
-    <hyperlink ref="A20" r:id="rId31" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/rename-system-utilities/"/>
-    <hyperlink ref="B21" r:id="rId32" location="" tooltip="" display="Suspicious Copy From or To System32"/>
-    <hyperlink ref="C21" r:id="rId33" location="" tooltip="" display="Creation of an Executable by an Executable"/>
-    <hyperlink ref="A22" r:id="rId34" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/match-legitimate-name-or-location/"/>
-    <hyperlink ref="B23" r:id="rId35" location="" tooltip="" display="Non Interactive PowerShell"/>
-    <hyperlink ref="C23" r:id="rId36" location="" tooltip="" display="Change PowerShell Policies to an Unsecure Level"/>
-    <hyperlink ref="A24" r:id="rId37" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/dll-search-order-hijacking/"/>
-    <hyperlink ref="B25" r:id="rId38" location="" tooltip="" display="Suspicious Copy From or To System32"/>
-    <hyperlink ref="C25" r:id="rId39" location="" tooltip="" display="PowerShell Script Run in AppData"/>
-    <hyperlink ref="D25" r:id="rId40" location="" tooltip="" display="Creation of an Executable by an Executable"/>
-    <hyperlink ref="E25" r:id="rId41" location="" tooltip="" display="Suspicious Copy From or To System32"/>
+    <hyperlink ref="B11" r:id="rId14" location="" tooltip="" display="PowerShell Get-Process LSASS"/>
+    <hyperlink ref="C11" r:id="rId15" location="" tooltip="" display="LSASS Memory Dumping"/>
+    <hyperlink ref="D11" r:id="rId16" location="" tooltip="" display="Suspicious Script Execution From Temp Folder"/>
+    <hyperlink ref="E11" r:id="rId17" location="" tooltip="" display="Non Interactive PowerShell"/>
+    <hyperlink ref="F11" r:id="rId18" location="" tooltip="" display="LSASS Memory Dump File Creation"/>
+    <hyperlink ref="H11" r:id="rId19" location="" tooltip="" display="Load of dbghelp/dbgcore DLL from Suspicious Process"/>
+    <hyperlink ref="A12" r:id="rId20" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/ingress-tool-transfer/"/>
+    <hyperlink ref="B13" r:id="rId21" location="" tooltip="" display="Non Interactive PowerShell"/>
+    <hyperlink ref="C13" r:id="rId22" location="" tooltip="" display="PowerShell Web Download "/>
+    <hyperlink ref="D13" r:id="rId23" location="" tooltip="" display="Windows Suspicious Use Of Web Request in CommandLine "/>
+    <hyperlink ref="E13" r:id="rId24" location="" tooltip="" display="PowerShell Download from URL "/>
+    <hyperlink ref="F13" r:id="rId25" location="" tooltip="" display="PowerShell Network Connections "/>
+    <hyperlink ref="A14" r:id="rId26" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/process-injection/"/>
+    <hyperlink ref="B15" r:id="rId27" location="" tooltip="" display="Non Interactive PowerShell"/>
+    <hyperlink ref="C15" r:id="rId28" location="" tooltip="" display="PowerShell Get-Process LSASS"/>
+    <hyperlink ref="D15" r:id="rId29" location="" tooltip="" display="MavInject Process Injection"/>
+    <hyperlink ref="E15" r:id="rId30" location="" tooltip="" display="Mavinject Inject DLL Into Running Process"/>
+    <hyperlink ref="F15" r:id="rId31" location="" tooltip="" display="Suspicious GrantedAccess Flags on LSASS Access"/>
+    <hyperlink ref="A16" r:id="rId32" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/scheduled-task/"/>
+    <hyperlink ref="B17" r:id="rId33" location="" tooltip="" display="Suspicious Add Scheduled Command Pattern "/>
+    <hyperlink ref="C17" r:id="rId34" location="" tooltip="" display="Scheduled Task Creation"/>
+    <hyperlink ref="D17" r:id="rId35" location="" tooltip="" display="Suspicius Schtasks From Env Var Folder "/>
+    <hyperlink ref="E17" r:id="rId36" location="" tooltip="" display="New TaskCache Entry "/>
+    <hyperlink ref="F17" r:id="rId37" location="" tooltip="" display="Cmd Stream Redirection"/>
+    <hyperlink ref="G17" r:id="rId38" location="" tooltip="" display="Redirect Output in CommandLine "/>
+    <hyperlink ref="A18" r:id="rId39" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/obfuscated-files-information/"/>
+    <hyperlink ref="B19" r:id="rId40" location="" tooltip="" display="Non Interactive PowerShell "/>
+    <hyperlink ref="C19" r:id="rId41" location="" tooltip="" display="Change PowerShell Policies to an Unsecure Level"/>
+    <hyperlink ref="A20" r:id="rId42" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/rename-system-utilities/"/>
+    <hyperlink ref="B21" r:id="rId43" location="" tooltip="" display="Suspicious Copy From or To System32"/>
+    <hyperlink ref="C21" r:id="rId44" location="" tooltip="" display="Creation of an Executable by an Executable"/>
+    <hyperlink ref="A22" r:id="rId45" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/match-legitimate-name-or-location/"/>
+    <hyperlink ref="B23" r:id="rId46" location="" tooltip="" display="Non Interactive PowerShell"/>
+    <hyperlink ref="C23" r:id="rId47" location="" tooltip="" display="Change PowerShell Policies to an Unsecure Level"/>
+    <hyperlink ref="A24" r:id="rId48" location="" tooltip="" display="https://redcanary.com/threat-detection-report/techniques/dll-search-order-hijacking/"/>
+    <hyperlink ref="B25" r:id="rId49" location="" tooltip="" display="Suspicious Copy From or To System32"/>
+    <hyperlink ref="C25" r:id="rId50" location="" tooltip="" display="PowerShell Script Run in AppData"/>
+    <hyperlink ref="D25" r:id="rId51" location="" tooltip="" display="Creation of an Executable by an Executable"/>
+    <hyperlink ref="E25" r:id="rId52" location="" tooltip="" display="Suspicious Copy From or To System32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
